--- a/chp3.xlsx
+++ b/chp3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\VESP\AIML\Project's\ESY-SEM-REPLICA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B4DC62-BBEA-4362-895C-97DA4F75908F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231A7004-2E61-4AB0-916A-BD60B00EF2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3161,7 +3161,7 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3169,6 +3169,7 @@
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
@@ -7559,7 +7560,7 @@
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -7598,7 +7599,7 @@
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -8534,7 +8535,7 @@
       </c>
       <c r="F138" s="16"/>
       <c r="G138" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -32587,6 +32588,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>